--- a/S3/Matriz_ISO25010_Plantilla (1).xlsx
+++ b/S3/Matriz_ISO25010_Plantilla (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pato Alarcon\Clases\Uisek\Silabos\Aseguramient ode la calidad de software\Sesion 3\Ejercicio vigente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeager\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5D7C0-AE22-4AE2-A6BF-438A4A9B51C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD9ED6C-A5E6-49D5-831C-432E91623F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{108F042B-8F65-45F1-B599-69BB0F49F5D0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{108F042B-8F65-45F1-B599-69BB0F49F5D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz_ISO25010_Plantilla" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -92,13 +92,193 @@
   </si>
   <si>
     <t>Caso narrado</t>
+  </si>
+  <si>
+    <t>MED-02</t>
+  </si>
+  <si>
+    <t>MED-03</t>
+  </si>
+  <si>
+    <t>MED-04</t>
+  </si>
+  <si>
+    <t>MED-05</t>
+  </si>
+  <si>
+    <t>MED-06</t>
+  </si>
+  <si>
+    <t>MED-07</t>
+  </si>
+  <si>
+    <t>MED-08</t>
+  </si>
+  <si>
+    <t>Usabilidad</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Fiabilidad</t>
+  </si>
+  <si>
+    <t>Compatibilidad</t>
+  </si>
+  <si>
+    <t>Portabilidad</t>
+  </si>
+  <si>
+    <t>Protección frente a errores</t>
+  </si>
+  <si>
+    <t>Confidencialidad</t>
+  </si>
+  <si>
+    <t>Recuperabilidad</t>
+  </si>
+  <si>
+    <t>Interoperabilidad</t>
+  </si>
+  <si>
+    <t>Diseño Responsive</t>
+  </si>
+  <si>
+    <t>Estética de la UI</t>
+  </si>
+  <si>
+    <t>Corrección funcional</t>
+  </si>
+  <si>
+    <t>El error debe mostrar el campo equivocado</t>
+  </si>
+  <si>
+    <t>El cache debe ser borrado tras accion de login o sign up</t>
+  </si>
+  <si>
+    <t>El turno debe ser recuperable fuera del search engine</t>
+  </si>
+  <si>
+    <t>Tras exportar ambos calendarios deben ser identicos</t>
+  </si>
+  <si>
+    <t>El formulario debe ser visible en &lt;= 80% en todo los dispositivos</t>
+  </si>
+  <si>
+    <t>El espacio entre ambos botones debe ser &lt;= 200 pixeles</t>
+  </si>
+  <si>
+    <t>No debe haber errores duplicados</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Mensaje de error explicado (Si o No)</t>
+  </si>
+  <si>
+    <t>Replicaciòn de error (Se repite o no)</t>
+  </si>
+  <si>
+    <t>Almacenar datos en servidor (Refrescar pagina - Se recupera o no)</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se recupera </t>
+  </si>
+  <si>
+    <t>Inspeccion</t>
+  </si>
+  <si>
+    <t>No (Historia indica mensaje error)</t>
+  </si>
+  <si>
+    <t>No (Historia indica almacenaminto)</t>
+  </si>
+  <si>
+    <t>No (Histora indica perdida de datos)</t>
+  </si>
+  <si>
+    <t>Comparar calendarios( Similitud &gt;= 90)</t>
+  </si>
+  <si>
+    <t>&gt;= 90% en 3/3 mediciones</t>
+  </si>
+  <si>
+    <t>No (Hisotria indica error de importacion)</t>
+  </si>
+  <si>
+    <t>Bloqueante</t>
+  </si>
+  <si>
+    <t>Visibilidad de formulario en &gt;=80%</t>
+  </si>
+  <si>
+    <t>&gt;= 80% en 3/3 mediciones</t>
+  </si>
+  <si>
+    <t>No (Hisotria indica error de UI)</t>
+  </si>
+  <si>
+    <t>Espacio de pixles &gt;= 200p</t>
+  </si>
+  <si>
+    <t>&gt;= 200p en 3/3 mediciones</t>
+  </si>
+  <si>
+    <t>Sin errores duplicados</t>
+  </si>
+  <si>
+    <t>Turno unico</t>
+  </si>
+  <si>
+    <t>No (Hisotria indica error de logic)</t>
+  </si>
+  <si>
+    <t>El mensaje de error “401” no ofrece orientación al usuario sobre cómo proceder. Se sugiere incluir un texto explicativo o un enlace de ayuda para mejorar la experiencia de uso.</t>
+  </si>
+  <si>
+    <t>Se detectó que la sesión permanece activa tras cerrar la pestaña, lo que representa un riesgo de confidencialidad. Es necesario implementar cierre automático o invalidación del token.</t>
+  </si>
+  <si>
+    <t>En caso de actualización del navegador, el sistema pierde la información del turno sin opción de recuperación. Se recomienda implementar una función de guardado temporal o recuperación.</t>
+  </si>
+  <si>
+    <t>Al exportar el calendario, los datos no coinciden completamente con la aplicación original. Se debe revisar la interoperabilidad y el formato de exportación..</t>
+  </si>
+  <si>
+    <t>El formulario no mantiene su diseño correctamente en algunos dispositivos móviles. Se sugiere ajustar los estilos CSS y probar en diferentes resoluciones para asegurar el diseño responsive.</t>
+  </si>
+  <si>
+    <t>Se observó que algunos espacios entre botones y campos de texto superan los 200 px, afectando la estética de la interfaz. Se recomienda unificar márgenes y espaciados.</t>
+  </si>
+  <si>
+    <t>En la prueba de login se detectaron errores repetidos al ingresar credenciales, lo que afecta la funcionalidad. Se requiere depurar la validación de usuario y manejo de errores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +425,18 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -636,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -650,50 +842,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,7 +902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1025,13 +1218,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C646C19-4485-4E5F-825D-17D09CE9BEFB}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -1047,7 +1240,7 @@
     <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,8 +1277,11 @@
       <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1318,300 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>